--- a/data/Process/Crown/Dashboard.xlsx
+++ b/data/Process/Crown/Dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="150" windowWidth="26565" windowHeight="11220" tabRatio="685" activeTab="3"/>
+    <workbookView xWindow="2805" yWindow="-150" windowWidth="26565" windowHeight="11220" tabRatio="685" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GivingOpp" sheetId="41" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="212">
   <si>
     <t>Action</t>
   </si>
@@ -600,9 +600,6 @@
     <t>SrchGrantee#</t>
   </si>
   <si>
-    <t>GranteeOrg=Orange County Community Foundation;Address=4041 MacArthur Blvd., #510;CityStateZip=Newport Beach, CA 92660;LowAmount=99;OKAmount=1500;DisplayAmount=$1,500.00;IDOption=From: Cynthia;RegrantOption=Quarterly;NDays=90;Purpose=Providing healthy food in school cafeterias;Notes=Follow up in two weeks;DateVars=%date%</t>
-  </si>
-  <si>
     <t>Value=Make A Grant Recommendation</t>
   </si>
   <si>
@@ -627,15 +624,9 @@
     <t>Value=Search for Charities;CompareMode=Contains;WaitTime=10</t>
   </si>
   <si>
-    <t>GranteeOrg=INTERNATIONAL SPECIES;Address=2600 Eagan Woods Dr;CityStateZip=Eagan, MN 55121;LowAmount=30;OKAmount=120;DisplayAmount=$120.00;IDOption=From: DFP_Board Member;RegrantOption=Quarterly;NDays=90;Purpose=Helping disabled kids and their parents;Notes=Please put a rush on this one;DateVars=%date%</t>
-  </si>
-  <si>
     <t>Verify the displayed page shows blurb containing grant amount ({displayAmount}) and GranteeOrg {GranteeOrg}</t>
   </si>
   <si>
-    <t>Verify the selected month in the month dropdown represents today's date in short month name format</t>
-  </si>
-  <si>
     <t>Verify the Next Grant Date is set to {nDays} days ahead</t>
   </si>
   <si>
@@ -654,25 +645,25 @@
     <t>waittime=2</t>
   </si>
   <si>
-    <t>SkipTokens=None;GranteeOrg=OHIO NORTHERN UNIVERSITY;Address=525 S Main St;CityStateZip=Ada, OH 45810;LowAmount=50;OKAmount=500;DisplayAmount=$500.00;IDOption=From: DFP_Board Member;RegrantOption=Quarterly;NDays=90;Purpose=Helping disabled kids and their parents;Notes=Please put a rush on this one;DateVars=%date%</t>
-  </si>
-  <si>
-    <t>SkipTokens=DismissAlert;address=2600 Eagan Woods Dr;CityStateZip=Eagan, MN 55121;LowAmount=25;OKAmount=400;DisplayAmount=$400.00;IDOption=Cynthia;RegrantOption=Quarterly;NDays=90;Purpose=Providing support to lonely souls;Notes=No rush. Take your time one;DateVars=%date%</t>
-  </si>
-  <si>
     <t>SkipToken=DismissAlert</t>
   </si>
   <si>
     <t>Value=Grant;CompareMode=Contains;option=IgnoreCase</t>
   </si>
   <si>
-    <t>id,css</t>
-  </si>
-  <si>
-    <t>edit-field-grant-sch-submission-date-0-value-mon,option[selected="selected"]</t>
-  </si>
-  <si>
-    <t>Value=true;CompareMode=equals;WaitTime=5</t>
+    <t>GranteeOrg=Orange County Community Foundation;Address=4041 MacArthur Blvd., #510;CityStateZip=Newport Beach, CA 92660;LowAmount=99;OKAmount=1500;DisplayAmount=$1,500.00;IDOption=From: Bill Bill;RegrantOption=Quarterly;NDays=90;Purpose=Providing healthy food in school cafeterias;Notes=Follow up in two weeks;DateVars=%date%</t>
+  </si>
+  <si>
+    <t>SkipTokens=DismissAlert;address=2600 Eagan Woods Dr;CityStateZip=Eagan, MN 55121;LowAmount=25;OKAmount=400;DisplayAmount=$400.00;IDOption=From: Bill Bill;RegrantOption=Quarterly;NDays=90;Purpose=Providing support to lonely souls;Notes=No rush. Take your time one;DateVars=%date%</t>
+  </si>
+  <si>
+    <t>GranteeOrg=INTERNATIONAL SPECIES;Address=2600 Eagan Woods Dr;CityStateZip=Eagan, MN 55121;LowAmount=30;OKAmount=120;DisplayAmount=$120.00;IDOption=From: Bill Bill;RegrantOption=Quarterly;NDays=90;Purpose=Helping disabled kids and their parents;Notes=Please put a rush on this one;DateVars=%date%</t>
+  </si>
+  <si>
+    <t>SkipTokens=None;GranteeOrg=OHIO NORTHERN UNIVERSITY;Address=525 S Main St;CityStateZip=Ada, OH 45810;LowAmount=50;OKAmount=500;DisplayAmount=$500.00;IDOption=From: Bill Bill;RegrantOption=Quarterly;NDays=90;Purpose=Helping disabled kids and their parents;Notes=Please put a rush on this one;DateVars=%date%</t>
+  </si>
+  <si>
+    <t>Verify the selected month in the month dropdown represents today's date in short month name format:debug:</t>
   </si>
 </sst>
 </file>
@@ -761,37 +752,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <b/>
@@ -1465,18 +1426,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1 H3:H4">
-    <cfRule type="cellIs" dxfId="43" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H3:H4">
-    <cfRule type="cellIs" dxfId="40" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1630,18 +1591,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1662,7 +1623,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1714,14 +1675,14 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I2" s="6" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"MakeGrants#",  "setVars",  "",  "",  "",  "",  "SkipTokens=None;GranteeOrg=OHIO NORTHERN UNIVERSITY;Address=525 S Main St;CityStateZip=Ada, OH 45810;LowAmount=50;OKAmount=500;DisplayAmount=$500.00;IDOption=From: DFP_Board Member;RegrantOption=Quarterly;NDays=90;Purpose=Helping disabled kids and their parents;Notes=Please put a rush on this one;DateVars=%date%",  "Set up variables for making a grant"});</v>
+        <v>list.add(new String[] {"MakeGrants#",  "setVars",  "",  "",  "",  "",  "SkipTokens=None;GranteeOrg=OHIO NORTHERN UNIVERSITY;Address=525 S Main St;CityStateZip=Ada, OH 45810;LowAmount=50;OKAmount=500;DisplayAmount=$500.00;IDOption=From: Bill Bill;RegrantOption=Quarterly;NDays=90;Purpose=Helping disabled kids and their parents;Notes=Please put a rush on this one;DateVars=%date%",  "Set up variables for making a grant"});</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
@@ -1736,7 +1697,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>25</v>
@@ -1762,7 +1723,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>65</v>
@@ -1784,7 +1745,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>67</v>
@@ -1805,15 +1766,15 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5" t="s">
-        <v>190</v>
+      <c r="G6" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeGrants#",  "setVars",  "",  "",  "",  "",  "GranteeOrg=Orange County Community Foundation;Address=4041 MacArthur Blvd., #510;CityStateZip=Newport Beach, CA 92660;LowAmount=99;OKAmount=1500;DisplayAmount=$1,500.00;IDOption=From: Cynthia;RegrantOption=Quarterly;NDays=90;Purpose=Providing healthy food in school cafeterias;Notes=Follow up in two weeks;DateVars=%date%",  "Set up variables for making another grant"});</v>
+        <v>list.add(new String[] {"MakeGrants#",  "setVars",  "",  "",  "",  "",  "GranteeOrg=Orange County Community Foundation;Address=4041 MacArthur Blvd., #510;CityStateZip=Newport Beach, CA 92660;LowAmount=99;OKAmount=1500;DisplayAmount=$1,500.00;IDOption=From: Bill Bill;RegrantOption=Quarterly;NDays=90;Purpose=Providing healthy food in school cafeterias;Notes=Follow up in two weeks;DateVars=%date%",  "Set up variables for making another grant"});</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
@@ -1886,50 +1847,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1 I2">
-    <cfRule type="cellIs" dxfId="35" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 I2">
-    <cfRule type="cellIs" dxfId="32" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="31" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="28" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="24" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1957,9 +1918,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2008,7 +1969,7 @@
         <v>182</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2047,7 +2008,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I47" si="0">"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
+        <f t="shared" ref="I3:I46" si="0">"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
         <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "xpath",  "/html/body/div/div/div[3]/div/div/div/div/div/div/div[2]/h1[2]",  "GetText",  "",  "Value=Define Your Grant;CompareMode=Contains",  "Verify the header indicating Define Your Grant"});</v>
       </c>
     </row>
@@ -2062,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -2100,7 +2061,7 @@
         <v>174</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2153,7 +2114,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>33</v>
@@ -2473,7 +2434,7 @@
         <v>144</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2508,35 +2469,35 @@
         <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "partialLinkText",  "{GranteeOrg}",  "GetText",  "",  "Value={GranteeOrg};CompareMode=Contains;Option=IgnoreCase",  "Verify {GranteeOrg} GranteeOrg is displayed"});</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1">
-      <c r="A21" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>212</v>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="7" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "id,css",  "edit-field-grant-sch-submission-date-0-value-mon,option[selected="selected"]",  "IsSelected",  "",  "Value=true;CompareMode=equals;WaitTime=5",  "Verify the selected month in the month dropdown represents today's date in short month name format"});</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyOption",  "id",  "edit-field-grant-sch-submission-date-0-value-mon",  "isSelected",  "",  "ItemText={$shortMonthName};Value=true;CompareMode=equals",  "Verify the selected month in the month dropdown represents today's date in short month name format:debug:"});</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>182</v>
       </c>
@@ -2546,22 +2507,22 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>80</v>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>201</v>
+      <c r="G22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyOption",  "id",  "edit-field-grant-sch-submission-date-0-value-mon",  "isSelected",  "",  "ItemText={$shortMonthName};Value=true;CompareMode=equals",  "Verify the selected month in the month dropdown represents today's date in short month name format"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyOption",  "id",  "edit-field-grant-sch-submission-date-0-value-mday",  "isSelected",  "",  "ItemText={$shortDay};Value=true;CompareMode=equals",  "Verify the selected day in the day dropdown represents today's date in padded format"});</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1">
@@ -2575,77 +2536,77 @@
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyOption",  "id",  "edit-field-grant-sch-submission-date-0-value-mday",  "isSelected",  "",  "ItemText={$shortDay};Value=true;CompareMode=equals",  "Verify the selected day in the day dropdown represents today's date in padded format"});</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1">
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyOption",  "id",  "edit-field-grant-sch-submission-date-0-value-year",  "isSelected",  "",  "ItemText={$longYear};Value=true;CompareMode=equals",  "Verify the selected year in the year dropdown represents today's date in long format"});</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1">
       <c r="A24" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>148</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyOption",  "id",  "edit-field-grant-sch-submission-date-0-value-year",  "isSelected",  "",  "ItemText={$longYear};Value=true;CompareMode=equals",  "Verify the selected year in the year dropdown represents today's date in long format"});</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1">
+        <v>list.add(new String[] {"MakeAGrant#",  "saveElementProperty",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetAttribute",  "",  "SaveAs=TableSize;queryParam=childElementCount",  "Get the element count and save it as TableSize"});</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="5"/>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="I25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "saveElementProperty",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetAttribute",  "",  "SaveAs=TableSize;queryParam=childElementCount",  "Get the element count and save it as TableSize"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={DisplayAmount};Col=2;Tag=td;CompareMode=Contains",  "Verify the amount ({DisplayAmount}) is displayed"});</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2666,14 +2627,14 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>58</v>
+        <v>150</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={DisplayAmount};Col=2;Tag=td;CompareMode=Contains",  "Verify the amount ({DisplayAmount}) is displayed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={IDOption};Col=2;Tag=td;CompareMode=Contains",  "Verify the identity selected ({IDOption}) is displayed"});</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2694,14 +2655,14 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>60</v>
+        <v>151</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="I27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={IDOption};Col=2;Tag=td;CompareMode=Contains",  "Verify the identity selected ({IDOption}) is displayed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Notes};Col=2;Tag=td;CompareMode=Contains",  "Verify the notes entered ({Notes}) are displayed"});</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2722,17 +2683,17 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Notes};Col=2;Tag=td;CompareMode=Contains",  "Verify the notes entered ({Notes}) are displayed"});</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Purpose};Col=2;Tag=td;CompareMode=Contains",  "Verify the Purpose entered ({Purpose}) is displayed"});</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1">
       <c r="A29" s="5" t="s">
         <v>182</v>
       </c>
@@ -2750,14 +2711,14 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Purpose};Col=2;Tag=td;CompareMode=Contains",  "Verify the Purpose entered ({Purpose}) is displayed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={WelcomeUser};Col=2;Tag=td;CompareMode=Contains",  "Verify the Donor name ({WelcomeUser}) is displayed"});</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1">
@@ -2765,27 +2726,21 @@
         <v>182</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={WelcomeUser};Col=2;Tag=td;CompareMode=Contains",  "Verify the Donor name ({WelcomeUser}) is displayed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "setVars",  "",  "",  "",  "",  "datevars=%Date+{nDays}Days%",  "Set up the date variables to {nDays} in the future"});</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1">
@@ -2793,21 +2748,27 @@
         <v>182</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>87</v>
+        <v>154</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "setVars",  "",  "",  "",  "",  "datevars=%Date+{nDays}Days%",  "Set up the date variables to {nDays} in the future"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={$defaultDate};Col=2;Row=7;Tag=td;CompareMode=Contains",  "Verify the Next Grant Date is set to {nDays} days ahead"});</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1">
@@ -2828,42 +2789,40 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={$defaultDate};Col=2;Row=7;Tag=td;CompareMode=Contains",  "Verify the Next Grant Date is set to {nDays} days ahead"});</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1">
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={$defaultDate};Col=2;RowRange=14-16;Tag=td;CompareMode=Contains",  "Verify the Grant Reschedule Date is set to {nDays} days ahead"});</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div[2]/div/div/div/div/div/table/tbody",  "GetText",  "",  "Value={$defaultDate};Col=2;RowRange=14-16;Tag=td;CompareMode=Contains",  "Verify the Grant Reschedule Date is set to {nDays} days ahead"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "edit-submit",  "",  "no",  "",  "Click the Submit button without checking the authorization button"});</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2871,25 +2830,29 @@
         <v>182</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F34" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="H34" s="5" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "edit-submit",  "",  "no",  "",  "Click the Submit button without checking the authorization button"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "ClassName",  "messages status",  "GetText",  "no",  "Value=Grant authorization recommendation field is required;CompareMode=Contains",  "Verify an error message is displayed indicating Authorization is needed"});</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2897,29 +2860,23 @@
         <v>182</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>173</v>
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "ClassName",  "messages status",  "GetText",  "no",  "Value=Grant authorization recommendation field is required;CompareMode=Contains",  "Verify an error message is displayed indicating Authorization is needed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "edit-field-grant-auth-recommendation-keys",  "",  "",  "",  "Click the Authorization check box"});</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2933,67 +2890,71 @@
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="7" t="s">
-        <v>203</v>
+      <c r="H36" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "edit-field-grant-auth-recommendation-keys",  "",  "",  "",  "Click the Authorization check box"});</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "edit-submit",  "",  "",  "",  "Click the Submit button without checking the authorization button"});</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1">
       <c r="A37" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>71</v>
+      <c r="D37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "edit-submit",  "",  "",  "",  "Click the Submit button without checking the authorization button"});</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1">
+        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "popup_ok",  "",  "",  "SkipToken=DismissAlert",  "Handle the new grantee popup"});</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7" t="s">
-        <v>210</v>
+      <c r="D38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "click",  "id",  "popup_ok",  "",  "",  "SkipToken=DismissAlert",  "Handle the new grantee popup"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "id",  "messages",  "GetText",  "",  "Value=Grant;CompareMode=Contains",  "Verify the Grant entity is displayed in the messages div"});</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3014,42 +2975,42 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>204</v>
+        <v>157</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="I39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "id",  "messages",  "GetText",  "",  "Value=Grant;CompareMode=Contains",  "Verify the Grant entity is displayed in the messages div"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "id",  "messages",  "GetText",  "",  "Value=has been created;CompareMode=Contains",  "Verify the Grant 'has been created' part is displayed in the messages div"});</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>76</v>
+      <c r="G40" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "id",  "messages",  "GetText",  "",  "Value=has been created;CompareMode=Contains",  "Verify the Grant 'has been created' part is displayed in the messages div"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div/div/div/div[2]/h1",  "GetText",  "",  "Value=Grant;CompareMode=Contains;option=IgnoreCase",  "Verify the Grant heading is displayed"});</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3060,80 +3021,80 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>75</v>
+      <c r="G41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "xpath",  "/html/body/div/div/div[3]/div/div[2]/div/div/div/div/div[2]/h1",  "GetText",  "",  "Value=Grant;CompareMode=Contains;option=IgnoreCase",  "Verify the Grant heading is displayed"});</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "partialLinkText",  "{GranteeOrg}",  "GetText",  "",  "Value={GranteeOrg};CompareMode=Contains;Option=IgnoreCase",  "Verify {GranteeOrg} GranteeOrg link is displayed"});</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="4" customFormat="1">
       <c r="A42" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>77</v>
+        <v>149</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="I42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "verifyWebElement",  "partialLinkText",  "{GranteeOrg}",  "GetText",  "",  "Value={GranteeOrg};CompareMode=Contains;Option=IgnoreCase",  "Verify {GranteeOrg} GranteeOrg link is displayed"});</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1">
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={DisplayAmount};Col=2;Tag=td;CompareMode=Contains",  "Verify the amount ({DisplayAmount}) is displayed"});</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>58</v>
+        <v>151</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="I43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={DisplayAmount};Col=2;Tag=td;CompareMode=Contains",  "Verify the amount ({DisplayAmount}) is displayed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Notes};Col=2;Tag=td;CompareMode=Contains",  "Verify the notes entered ({Notes}) are displayed"});</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3154,14 +3115,14 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>61</v>
+        <v>152</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="I44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Notes};Col=2;Tag=td;CompareMode=Contains",  "Verify the notes entered ({Notes}) are displayed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Purpose};Col=2;Tag=td;CompareMode=Contains",  "Verify the Purpose entered ({Purpose}) is displayed"});</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3182,21 +3143,21 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>62</v>
+        <v>150</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={Purpose};Col=2;Tag=td;CompareMode=Contains",  "Verify the Purpose entered ({Purpose}) is displayed"});</v>
+        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={IDOption};Col=2;Tag=td;CompareMode=Contains",  "Verify the identity selected ({IDOption}) is displayed"});</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3210,74 +3171,30 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={IDOption};Col=2;Tag=td;CompareMode=Contains",  "Verify the identity selected ({IDOption}) is displayed"});</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="6" t="str">
-        <f t="shared" si="0"/>
         <v>list.add(new String[] {"MakeAGrant#",  "findCell",  "xpath",  "/html/body/div/div/div[3]/div/div[3]/div/div[2]/div/div/div/div/table/tbody",  "GetText",  "",  "Value={WelcomeUser};Col=2;Tag=td;CompareMode=Contains",  "Verify the Donor name ({WelcomeUser}) is displayed"});</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:I2">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:I2 I3:I46">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I2">
-    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I47">
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I47">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:I2 I3:I46">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3293,7 +3210,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G31" r:id="rId1" display="datevars=@Date+{nDays}Days@"/>
+    <hyperlink ref="G30" r:id="rId1" display="datevars=@Date+{nDays}Days@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3365,18 +3282,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3463,18 +3380,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3642,18 +3559,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H5">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H5">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3674,7 +3591,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3731,10 +3648,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="6" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3753,7 +3670,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>68</v>
@@ -3802,7 +3719,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>172</v>
@@ -3856,7 +3773,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>132</v>
@@ -3878,12 +3795,12 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"SrchGrantee#",  "setVars",  "",  "",  "",  "",  "SkipTokens=DismissAlert;address=2600 Eagan Woods Dr;CityStateZip=Eagan, MN 55121;LowAmount=25;OKAmount=400;DisplayAmount=$400.00;IDOption=Cynthia;RegrantOption=Quarterly;NDays=90;Purpose=Providing support to lonely souls;Notes=No rush. Take your time one;DateVars=%date%",  ""});</v>
+        <v>list.add(new String[] {"SrchGrantee#",  "setVars",  "",  "",  "",  "",  "SkipTokens=DismissAlert;address=2600 Eagan Woods Dr;CityStateZip=Eagan, MN 55121;LowAmount=25;OKAmount=400;DisplayAmount=$400.00;IDOption=From: Bill Bill;RegrantOption=Quarterly;NDays=90;Purpose=Providing support to lonely souls;Notes=No rush. Take your time one;DateVars=%date%",  ""});</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3910,18 +3827,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H2 H4:H7 I2:I3">
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H2 H4:H7 I2:I3">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Process/Crown/Dashboard.xlsx
+++ b/data/Process/Crown/Dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="-150" windowWidth="26565" windowHeight="11220" tabRatio="685" activeTab="3"/>
+    <workbookView xWindow="8850" yWindow="-300" windowWidth="26565" windowHeight="11220" tabRatio="685" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GivingOpp" sheetId="41" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="216">
   <si>
     <t>Action</t>
   </si>
@@ -354,9 +354,6 @@
     <t>TagName</t>
   </si>
   <si>
-    <t>findPage</t>
-  </si>
-  <si>
     <t>IsDisplayed</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>setPageSize</t>
   </si>
   <si>
-    <t>switchToFrame</t>
-  </si>
-  <si>
     <t>takeScreenShot</t>
   </si>
   <si>
@@ -664,6 +658,24 @@
   </si>
   <si>
     <t>Verify the selected month in the month dropdown represents today's date in short month name format:debug:</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>runExternalMethod</t>
+  </si>
+  <si>
+    <t>runJS</t>
+  </si>
+  <si>
+    <t>switchTo</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>verifyElementSize</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1400,7 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1398,7 +1410,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>67</v>
@@ -1471,37 +1483,37 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="4"/>
     </row>
@@ -1511,13 +1523,13 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -1573,7 +1585,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -1583,10 +1595,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1677,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -1675,7 +1687,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>68</v>
@@ -1687,7 +1699,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1697,7 +1709,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>25</v>
@@ -1709,7 +1721,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -1723,7 +1735,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>65</v>
@@ -1735,7 +1747,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1745,7 +1757,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>67</v>
@@ -1757,7 +1769,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -1767,7 +1779,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>79</v>
@@ -1779,7 +1791,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -1789,7 +1801,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>25</v>
@@ -1801,7 +1813,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -1825,7 +1837,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1835,7 +1847,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>67</v>
@@ -1920,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1966,10 +1978,10 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1977,7 +1989,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I2" s="6" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -1986,7 +1998,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2002,7 +2014,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
@@ -2014,7 +2026,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2023,17 +2035,17 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2042,7 +2054,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -2058,10 +2070,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2070,7 +2082,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -2086,7 +2098,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>69</v>
@@ -2098,7 +2110,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -2114,7 +2126,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>33</v>
@@ -2126,7 +2138,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -2152,7 +2164,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -2176,7 +2188,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -2192,7 +2204,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>39</v>
@@ -2204,7 +2216,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2230,7 +2242,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2243,7 +2255,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
@@ -2256,7 +2268,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -2271,10 +2283,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>38</v>
@@ -2286,7 +2298,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -2300,7 +2312,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>59</v>
@@ -2312,7 +2324,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
@@ -2338,7 +2350,7 @@
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -2364,7 +2376,7 @@
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>47</v>
@@ -2380,7 +2392,7 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>49</v>
@@ -2392,7 +2404,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -2416,7 +2428,7 @@
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -2431,10 +2443,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2443,7 +2455,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -2459,7 +2471,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>66</v>
@@ -2471,7 +2483,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>31</v>
@@ -2487,10 +2499,10 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2499,7 +2511,7 @@
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -2515,7 +2527,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>85</v>
@@ -2527,7 +2539,7 @@
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
@@ -2543,7 +2555,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>84</v>
@@ -2555,10 +2567,10 @@
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>15</v>
@@ -2571,10 +2583,10 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2583,7 +2595,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -2599,7 +2611,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>58</v>
@@ -2611,7 +2623,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -2627,7 +2639,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>60</v>
@@ -2639,7 +2651,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
@@ -2655,7 +2667,7 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>61</v>
@@ -2667,7 +2679,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
@@ -2683,7 +2695,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>62</v>
@@ -2695,7 +2707,7 @@
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>63</v>
@@ -2711,7 +2723,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>89</v>
@@ -2723,7 +2735,7 @@
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>41</v>
@@ -2733,7 +2745,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>87</v>
@@ -2745,7 +2757,7 @@
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>63</v>
@@ -2761,10 +2773,10 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2773,7 +2785,7 @@
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>63</v>
@@ -2789,7 +2801,7 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>88</v>
@@ -2801,7 +2813,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
@@ -2814,7 +2826,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="5" t="s">
@@ -2827,7 +2839,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
@@ -2836,19 +2848,19 @@
         <v>92</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2857,7 +2869,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -2872,7 +2884,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2881,7 +2893,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -2905,7 +2917,7 @@
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1">
       <c r="A37" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>4</v>
@@ -2914,15 +2926,15 @@
         <v>32</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2931,7 +2943,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -2947,10 +2959,10 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I38" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2959,7 +2971,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -2975,7 +2987,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>76</v>
@@ -2987,7 +2999,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -3003,7 +3015,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>75</v>
@@ -3015,7 +3027,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
@@ -3031,7 +3043,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>77</v>
@@ -3043,7 +3055,7 @@
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1">
       <c r="A42" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>63</v>
@@ -3059,7 +3071,7 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>58</v>
@@ -3071,7 +3083,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>63</v>
@@ -3087,7 +3099,7 @@
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>61</v>
@@ -3099,7 +3111,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>63</v>
@@ -3115,7 +3127,7 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>62</v>
@@ -3127,7 +3139,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>63</v>
@@ -3143,7 +3155,7 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>60</v>
@@ -3155,7 +3167,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>63</v>
@@ -3171,7 +3183,7 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>89</v>
@@ -3183,18 +3195,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I2 I3:I46">
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I2 I3:I46">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3264,7 +3276,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -3274,26 +3286,26 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3362,7 +3374,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -3372,26 +3384,26 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3459,7 +3471,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3485,7 +3497,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
@@ -3507,7 +3519,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -3519,7 +3531,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -3531,7 +3543,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -3547,7 +3559,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>86</v>
@@ -3559,18 +3571,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H5">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H5">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3634,7 +3646,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>34</v>
@@ -3643,15 +3655,15 @@
         <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I2" s="6" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3660,7 +3672,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>41</v>
@@ -3670,7 +3682,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>68</v>
@@ -3679,7 +3691,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -3694,7 +3706,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I9" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -3703,7 +3715,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -3715,14 +3727,14 @@
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3731,26 +3743,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3759,7 +3771,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -3768,15 +3780,15 @@
         <v>105</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3785,7 +3797,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>41</v>
@@ -3795,7 +3807,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4" t="str">
@@ -3805,7 +3817,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -3815,7 +3827,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>67</v>
@@ -3827,18 +3839,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H2 H4:H7 I2:I3">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H2 H4:H7 I2:I3">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3863,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3984,7 +3996,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3992,29 +4004,29 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4037,7 +4049,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4046,7 +4058,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4055,7 +4067,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4064,62 +4076,82 @@
     </row>
     <row r="17" spans="1:1" s="4" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>121</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
